--- a/file/2008年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2008年德阳市国民经济和社会发展统计公报.xlsx
@@ -7,14 +7,252 @@
   </bookViews>
   <sheets>
     <sheet name="综合" r:id="rId3" sheetId="1"/>
+    <sheet name="农业" r:id="rId4" sheetId="2"/>
+    <sheet name="工业" r:id="rId5" sheetId="3"/>
+    <sheet name="投资" r:id="rId6" sheetId="4"/>
+    <sheet name="贸易" r:id="rId7" sheetId="5"/>
+    <sheet name="交通" r:id="rId8" sheetId="6"/>
+    <sheet name="金融" r:id="rId9" sheetId="7"/>
+    <sheet name="教育" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>233</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>同比</t>
+  </si>
+  <si>
+    <t>年末总户数</t>
+  </si>
+  <si>
+    <t>万户</t>
+  </si>
+  <si>
+    <t>户籍总人口</t>
+  </si>
+  <si>
+    <t>万人</t>
+  </si>
+  <si>
+    <t>城镇人口</t>
+  </si>
+  <si>
+    <t>乡村人口</t>
+  </si>
+  <si>
+    <t>全年出生人口</t>
+  </si>
+  <si>
+    <t>死亡人口</t>
+  </si>
+  <si>
+    <t>年末常住人口</t>
+  </si>
+  <si>
+    <t>城镇化率</t>
+  </si>
+  <si>
+    <t>国民经济</t>
+  </si>
+  <si>
+    <t>全年地区生产总值</t>
+  </si>
+  <si>
+    <t>亿元</t>
+  </si>
+  <si>
+    <t>经济总量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人均GDP </t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>第一产业增加值</t>
+  </si>
+  <si>
+    <t>第二产业增加值</t>
+  </si>
+  <si>
+    <t>第三产业增加值</t>
+  </si>
+  <si>
+    <t>全年民营经济</t>
+  </si>
+  <si>
+    <t>民营经济</t>
+  </si>
+  <si>
+    <t>全年居民消费价格</t>
+  </si>
+  <si>
+    <t>工业品出厂价格</t>
+  </si>
+  <si>
+    <t>工业品购进价格</t>
+  </si>
+  <si>
+    <t>一般公共预算</t>
+  </si>
+  <si>
+    <t>播种面积</t>
+  </si>
+  <si>
+    <t>全年农作物播种面积</t>
+  </si>
+  <si>
+    <t>万公顷</t>
+  </si>
+  <si>
+    <t>粮食作物播种面积</t>
+  </si>
+  <si>
+    <t>油料作物播种面积</t>
+  </si>
+  <si>
+    <t>蔬菜及食用菌播种面积</t>
+  </si>
+  <si>
+    <t>全年粮食总产量</t>
+  </si>
+  <si>
+    <t>油料总产量</t>
+  </si>
+  <si>
+    <t>蔬菜总产量</t>
+  </si>
+  <si>
+    <t>全年肉类总产量</t>
+  </si>
+  <si>
+    <t>全部工业增加值</t>
+  </si>
+  <si>
+    <t>工业企业</t>
+  </si>
+  <si>
+    <t>主营业务收入</t>
+  </si>
+  <si>
+    <t>实现利税</t>
+  </si>
+  <si>
+    <t>利润总额</t>
+  </si>
+  <si>
+    <t>固定资产投资</t>
+  </si>
+  <si>
+    <t>第一产业投资</t>
+  </si>
+  <si>
+    <t>第二产业投资</t>
+  </si>
+  <si>
+    <t>第三产业投资</t>
+  </si>
+  <si>
+    <t>社会消费品零售总额</t>
+  </si>
+  <si>
+    <t>城镇消费品零售额</t>
+  </si>
+  <si>
+    <t>乡村消费品零售额</t>
+  </si>
+  <si>
+    <t>进出口总额</t>
+  </si>
+  <si>
+    <t>出口额</t>
+  </si>
+  <si>
+    <t>进口额</t>
+  </si>
+  <si>
+    <t>公路总里程</t>
+  </si>
+  <si>
+    <t>铁路运营里程</t>
+  </si>
+  <si>
+    <t>公路货运量</t>
+  </si>
+  <si>
+    <t>公路客运量</t>
+  </si>
+  <si>
+    <t>铁路客运量</t>
+  </si>
+  <si>
+    <t>铁路货运量</t>
+  </si>
+  <si>
+    <t>电信业务总量</t>
+  </si>
+  <si>
+    <t>固定电话用户</t>
+  </si>
+  <si>
+    <t>移动电话用户</t>
+  </si>
+  <si>
+    <t>金融机构本外币存款余额</t>
+  </si>
+  <si>
+    <t>金融机构本外币贷款余额</t>
+  </si>
+  <si>
+    <t>保费收入</t>
+  </si>
+  <si>
+    <t>各项赔款</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>在校学生</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>招生人数</t>
+  </si>
+  <si>
+    <t>在校</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>中等职业学校</t>
+  </si>
+  <si>
+    <t>普通高校</t>
   </si>
 </sst>
 </file>
@@ -59,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,6 +307,512 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/file/2008年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2008年德阳市国民经济和社会发展统计公报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>人口</t>
   </si>
@@ -90,7 +90,7 @@
     <t>第三产业增加值</t>
   </si>
   <si>
-    <t>全年民营经济</t>
+    <t>全年民营经济增加值</t>
   </si>
   <si>
     <t>民营经济</t>
@@ -177,12 +177,12 @@
     <t>进出口总额</t>
   </si>
   <si>
+    <t>进口额</t>
+  </si>
+  <si>
     <t>出口额</t>
   </si>
   <si>
-    <t>进口额</t>
-  </si>
-  <si>
     <t>公路总里程</t>
   </si>
   <si>
@@ -253,6 +253,249 @@
   </si>
   <si>
     <t>普通高校</t>
+  </si>
+  <si>
+    <t>134.2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>387.4</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>296.6</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>39.5%</t>
+  </si>
+  <si>
+    <t>+1.3%</t>
+  </si>
+  <si>
+    <t>695.04</t>
+  </si>
+  <si>
+    <t>+1.0%</t>
+  </si>
+  <si>
+    <t>19084</t>
+  </si>
+  <si>
+    <t>+1.1%</t>
+  </si>
+  <si>
+    <t>129.4</t>
+  </si>
+  <si>
+    <t>-3.4%</t>
+  </si>
+  <si>
+    <t>383.5</t>
+  </si>
+  <si>
+    <t>182.2</t>
+  </si>
+  <si>
+    <t>+3%</t>
+  </si>
+  <si>
+    <t>348.1</t>
+  </si>
+  <si>
+    <t>-1.7%</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>+0.1%</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>-9.6%</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>+6%</t>
+  </si>
+  <si>
+    <t>195万吨</t>
+  </si>
+  <si>
+    <t>+0.01%</t>
+  </si>
+  <si>
+    <t>17万吨</t>
+  </si>
+  <si>
+    <t>+6.6%</t>
+  </si>
+  <si>
+    <t>178.2万吨</t>
+  </si>
+  <si>
+    <t>-14.3%</t>
+  </si>
+  <si>
+    <t>44.7万吨</t>
+  </si>
+  <si>
+    <t>-4.8%</t>
+  </si>
+  <si>
+    <t>325.7亿元</t>
+  </si>
+  <si>
+    <t>931户</t>
+  </si>
+  <si>
+    <t>901.5亿元</t>
+  </si>
+  <si>
+    <t>88.0亿元</t>
+  </si>
+  <si>
+    <t>42.4亿元</t>
+  </si>
+  <si>
+    <t>218.9亿元</t>
+  </si>
+  <si>
+    <t>+32.8%</t>
+  </si>
+  <si>
+    <t>4.6亿元</t>
+  </si>
+  <si>
+    <t>+67.0%</t>
+  </si>
+  <si>
+    <t>109.6亿元</t>
+  </si>
+  <si>
+    <t>+16.1%</t>
+  </si>
+  <si>
+    <t>104.7亿元</t>
+  </si>
+  <si>
+    <t>+54.6%</t>
+  </si>
+  <si>
+    <t>200.5亿元</t>
+  </si>
+  <si>
+    <t>+3.8%</t>
+  </si>
+  <si>
+    <t>90.1亿元</t>
+  </si>
+  <si>
+    <t>83.6亿元</t>
+  </si>
+  <si>
+    <t>+2.7%</t>
+  </si>
+  <si>
+    <t>18.6亿美元</t>
+  </si>
+  <si>
+    <t>+40.5%</t>
+  </si>
+  <si>
+    <t>9.4亿美元</t>
+  </si>
+  <si>
+    <t>+28.8%</t>
+  </si>
+  <si>
+    <t>9.2亿美元</t>
+  </si>
+  <si>
+    <t>+54.3%</t>
+  </si>
+  <si>
+    <t>7560公里</t>
+  </si>
+  <si>
+    <t>13.7亿吨公里</t>
+  </si>
+  <si>
+    <t>14.6亿人公里</t>
+  </si>
+  <si>
+    <t>42.9亿元</t>
+  </si>
+  <si>
+    <t>+33.2%</t>
+  </si>
+  <si>
+    <t>179.3万户</t>
+  </si>
+  <si>
+    <t>+29.9%</t>
+  </si>
+  <si>
+    <t>960.9亿元</t>
+  </si>
+  <si>
+    <t>+63%</t>
+  </si>
+  <si>
+    <t>327.4亿元</t>
+  </si>
+  <si>
+    <t>+19.5%</t>
+  </si>
+  <si>
+    <t>25.9亿元</t>
+  </si>
+  <si>
+    <t>8.8亿元</t>
+  </si>
+  <si>
+    <t>534所</t>
+  </si>
+  <si>
+    <t>20.2万人</t>
+  </si>
+  <si>
+    <t>163所</t>
+  </si>
+  <si>
+    <t>13.2万人</t>
+  </si>
+  <si>
+    <t>28所</t>
+  </si>
+  <si>
+    <t>5.1万人</t>
+  </si>
+  <si>
+    <t>26所</t>
+  </si>
+  <si>
+    <t>5.4万人</t>
+  </si>
+  <si>
+    <t>6所</t>
+  </si>
+  <si>
+    <t>5.3万人</t>
   </si>
 </sst>
 </file>
@@ -287,10 +530,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -299,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -324,6 +567,12 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -332,6 +581,12 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -340,6 +595,12 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -348,6 +609,12 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -356,6 +623,12 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -364,6 +637,12 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -372,11 +651,23 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -399,6 +690,12 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -407,6 +704,12 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -415,6 +718,12 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -423,6 +732,12 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -431,6 +746,12 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -439,35 +760,62 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>25</v>
       </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>26</v>
       </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>27</v>
       </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -504,6 +852,12 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -512,6 +866,12 @@
       <c r="B3" t="s">
         <v>31</v>
       </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -520,6 +880,12 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -528,25 +894,55 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>36</v>
       </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>37</v>
       </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +952,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -566,25 +962,40 @@
       <c r="A1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>41</v>
       </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>42</v>
       </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,20 +1015,44 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>45</v>
       </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>46</v>
       </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -637,30 +1072,66 @@
       <c r="A1" t="s">
         <v>48</v>
       </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>51</v>
       </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>52</v>
       </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,45 +1151,81 @@
       <c r="A1" t="s">
         <v>54</v>
       </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>58</v>
       </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>59</v>
       </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>61</v>
       </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,20 +1245,44 @@
       <c r="A1" t="s">
         <v>63</v>
       </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>65</v>
       </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,11 +1302,20 @@
       <c r="A1" t="s">
         <v>67</v>
       </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
       <c r="C1" t="s">
         <v>68</v>
       </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
       <c r="E1" t="s">
         <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -793,25 +1333,70 @@
       <c r="A7" t="s">
         <v>73</v>
       </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>74</v>
       </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>75</v>
       </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>76</v>
       </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/file/2008年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2008年德阳市国民经济和社会发展统计公报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>人口</t>
   </si>
@@ -430,12 +430,6 @@
   </si>
   <si>
     <t>7560公里</t>
-  </si>
-  <si>
-    <t>13.7亿吨公里</t>
-  </si>
-  <si>
-    <t>14.6亿人公里</t>
   </si>
   <si>
     <t>42.9亿元</t>
@@ -1168,7 +1162,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1176,7 +1170,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1200,10 +1194,10 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -1222,10 +1216,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1240,10 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -1257,10 +1251,10 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -1268,10 +1262,10 @@
         <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>79</v>
@@ -1334,13 +1328,13 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1348,13 +1342,13 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -1362,13 +1356,13 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -1376,13 +1370,13 @@
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -1390,13 +1384,13 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/file/2008年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2008年德阳市国民经济和社会发展统计公报.xlsx
@@ -309,7 +309,7 @@
     <t>+3%</t>
   </si>
   <si>
-    <t>348.1</t>
+    <t>348.1亿元</t>
   </si>
   <si>
     <t>-1.7%</t>
